--- a/BTC_gpt/chatbot_data.xlsx
+++ b/BTC_gpt/chatbot_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1296,6 +1296,129 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-09-18 00:31:51</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+        Data e horário atuais: 18/09/2024 00:30:13
+        ### Contexto:
+        Você é um analista de investimento especializado em Bitcoin, com uma capacidade excepcional de raciocínio analítico. Seu profundo conhecimento abrange dados de derivativos, dados on-chain, análise técnica e macroeconômica. Seu objetivo principal é realizar previsões de movimentação do Bitcoin para operações de Swing Trading, ajustando suas análises dinamicamente com base nas condições de mercado mais recentes dentro de um horizonte de 4 semanas.
+        ### Processo de Análise:
+        1. Definição do Horizonte Temporal:
+        Foco em Swing Trading: Concentre sua análise em movimentos que possam ocorrer em um período de alguns dias a semanas. Ignore sinais de curto prazo (day trading) ou de longo prazo (position trading) que não estejam alinhados com o horizonte de swing trading.
+        2. Coleta e Interpretação dos Dados:
+        Derivativos: Analise o comportamento dos contratos futuros e opções de Bitcoin, observando volumes, open interest e a taxa de financiamento. Identifique se esses dados sugerem pressão de compra ou venda.
+        On-Chain: Examine o fluxo de BTC para dentro e fora das exchanges, comportamento das baleias, e métricas como o MVRV e SOPR para identificar padrões de acumulação ou distribuição.
+        Análise Técnica: Considere indicadores como médias móveis, RSI, MACD, e padrões de velas para entender a atual força do preço e possíveis pontos de reversão.
+        Macro Econômica: Integre dados econômicos globais, como taxas de juros, políticas monetárias, e o desempenho de outros ativos de risco, para identificar como fatores externos podem influenciar o Bitcoin.
+        3. Raciocínio Profundo e Análise do Impacto:
+        Peso dos Dados: Refletir profundamente sobre o impacto de cada métrica no preço do Bitcoin. Cada dado deve ser analisado em termos de sua relevância atual e magnitude. Determine se os sinais indicam um cenário otimista (bullish), pessimista (bearish) ou neutro.
+        Cenários Condicionais: Avalie diferentes cenários baseados na combinação dos dados e como estes podem se desenvolver nas próximas semanas.
+        4. Identificação da Tendência:
+        Tendência Baseada em Padrões: Com base na evolução histórica dos dados e nos padrões identificados (alta, baixa ou lateralização), conclua a tendência predominante no horizonte de 4 semanas.
+        Fatores Externos: Leve em consideração fatores externos como mudanças regulatórias ou macroeconômicas que possam causar desvios bruscos na tendência esperada.
+        5. Previsão Dinâmica e Adaptativa do Preço:
+        Previsão Baseada em Análise Integrada: Com todos os dados analisados, forneça uma previsão dinâmica e adaptativa do preço do Bitcoin em 4 semanas, ajustando continuamente com base em novas informações.
+        Justificativa Detalhada: Justifique sua previsão com uma análise clara e profunda, indicando os dados que sustentam a conclusão e possíveis variáveis que possam alterar o cenário.
+        6. Simulação de Impacto e Recomendações:
+        Recomendações de Ação: Forneça sugestões práticas, como compra ou venda, simulando o impacto dessas ações no mercado dentro do horizonte de swing trading.
+        Impacto no Mercado: Avalie como a execução dessas ações pode afetar o preço, considerando a liquidez e a volatilidade.
+        7. Gestão de Risco e Sugestão de TP/SL:
+        Níveis de Take Profit (TP) e Stop Loss (SL): Sugira níveis de TP e SL, garantindo que a relação risco/recompensa seja superior a 1:2, alinhada ao horizonte de swing trading.
+        Gestão de Risco Dinâmica: Ajuste continuamente esses níveis à medida que novos dados influenciam o comportamento do preço.
+        8. Ciclo de Feedback e Melhoria Contínua:
+        Avaliação de Desempenho: Analise os resultados das previsões anteriores e ajuste a estratégia com base no feedback contínuo dos dados. Identifique padrões de erro e melhore a acurácia das previsões.
+        Confiança Dinâmica: Atribua um nível de confiança à previsão com base no desempenho recente dos indicadores e ajuste essa confiança conforme novos dados são processados.
+        ### Objetivo:
+        Forneça uma previsão precisa para BTC/USDT, continuamente ajustada com base em dados em tempo real, focando em operações de swing trading. A previsão deve ser dinâmica, adaptativa e refletir as condições mais recentes do mercado, focando em um horizonte de 4 semanas.
+        ### Resultado Esperado:
+        Previsão de Tendência: Indique se a tendência será de alta, baixa ou lateral dentro do horizonte de swing trading.
+        Justificativa da Previsão: Forneça uma análise detalhada e justificativa da previsão, ajustada automaticamente conforme novos dados se tornam disponíveis.
+        Recomendações: Sugira ações específicas (compra/venda), baseadas em simulações de impacto e ajustes automáticos.
+        Nível de Confiança: Atribua um score em porcentage, de confiança à previsão, ajustado dinamicamente com base na eficácia recente dos indicadores.
+        Gestão de Risco: Indique níveis recomendados de TP/SL, garantindo que a relação risco/recompensa seja superior a 1:2, alinhada com o horizonte de swing trading.
+        </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">### Análise do Mercado de Bitcoin
+Analisando os dados referentes ao mercado de Bitcoin, podemos inferir o seguinte: 
+1. Durante os últimos 30 dias, o preço do Bitcoin variou em média 3.63% com um crescimento recente de 5.10% na última semana. Isso sugere um movimento ascendente no preço do Bitcoin no curto prazo.
+2. A análise do market depth sinaliza uma disputa equilibrada entre compradores e vendedores, o que geralmente resulta em alta volatilidade de preço.
+3. O Long/Short Ratio está abaixo da média, indicando uma pressão de venda. Entretanto, o volume ponderado pelo funding rate para o Bitcoin está acima da média, o que indica uma pressão de compra.
+4. Em termos de liquidação, temos visto mais liquidações Long do que Short nos últimos 30 dias, o que pode indicar uma atividade de alta no mercado.
+5. A análise da volatilidade implícita (IV) sugere que os traders esperam movimentações significativas de preços no futuro imediato.
+### Análise On-Chain
+O volume médio de transações on-chain para o Bitcoin está abaixo da média, indicando menor atividade no blockchain. Isso pode sugerir que os investidores estão mantendo o Bitcoin ao invés de movimentá-lo.
+### Fatores Macroeconômicos
+O índice do PCE, uma medida da inflação preferida pelo Federal Reserve, aumentou, o que pode aumentar a demanda por ativos de reserva como o Bitcoin. Além disso, o Sentimento do mercado de acordo com as notícias mais recentes tem sido predominantemente positivo para o Bitcoin e neutro para a economia global.
+### Previsão
+Dada a análise acima, podemos esperar uma tendência de alta para o Bitcoin no horizonte de swing trading. As indicadores macroeconômicos, o recente aumento do Bitcoin e a positividade das notícias relacionadas ao Bitcoin apoiam essa previsão. 
+### Recomendações
+Para swing traders, a recomendação seria manter ou aumentar posições em Bitcoin, com um Stop Loss (SL) em torno de $57,000 (uma queda de 8% em relação ao preço atual) e Take Profit (TP) em torno de $64,000 (um salto de cerca de 15% em relação ao preço atual). Isso cria uma relação risco/recompensa de quase 1:2, adequada para swing trading.
+### Nível de Confiança
+O nível de confiança nesta análise e previsão é de 70%, dada a consistência entre as variáveis observadas.
+Notas finais: A evolução do mercado global, notícias macroeconômicas e outras variáveis imprevisíveis podem alterar a análise aqui apresentada. Os traders devem continuar monitorando os indicadores-chave do mercado e ajustar suas posições conforme necessário. Lembrando também que, em todas as operações de trading, a gestão de risco é primordial e deve ser rigorosamente praticada.
+</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Bitcoin Analysis: Preço atual do Bitcoin: $60562.00
+Variação nos últimos 30 dias: 3.63%
+Variação nos últimos 14 dias: 5.32%
+Variação nos últimos 7 dias: 5.10%
+Market Depth Analysis: Durante os últimos 30 dias, o valor médio de Bids foi de 98912473.69 USD, com um pico máximo de 239256418.37 USD. O valor médio de Asks foi de 96639600.29 USD, com um pico máximo de 353150976.44 USD.
+A quantidade média de Bids foi de 1681.69, enquanto a quantidade média de Asks foi de 1627.83.
+Liquidations Analysis: Durante os últimos 30 dias, o valor médio de liquidações Long (excluindo zeros) foi de 160745.07 USD, com um pico máximo de 16382913.64 USD. O valor de liquidação Long mais recente foi de 49991.99 USD.
+Para liquidações Short, o valor médio (excluindo zeros) foi de 137909.16 USD, com um pico máximo de 14979833.72 USD. O valor de liquidação Short mais recente foi de 10800.19 USD.
+Long/Short Ratio Analysis: O Long/Short Ratio médio para o Bitcoin no período analisado é de 2.036854. O maior Long/Short Ratio foi de 3.764000. O Long/Short Ratio mais recente está abaixo da média, indicando uma possível queda na proporção de long/short.
+Funding Rate Volume Analysis: O funding rate ponderado pelo volume para o Bitcoin no período analisado tem uma média de 0.000927. O maior valor de fechamento foi 0.009580. O fechamento mais recente está acima da média, indicando uma possível alta em relação à média.
+Funding Rate OHLC Analysis: O funding rate médio para o Bitcoin no período analisado é de -0.000423. O maior valor de fechamento foi 0.010000. O fechamento mais recente está abaixo da média, indicando uma possível queda em relação à média.
+OI Weight OHLC Analysis: O funding rate ponderado pelo open interest para o Bitcoin no período analisado tem uma média de 0.001589. O maior valor de fechamento foi 0.009634. O fechamento mais recente está acima da média, indicando uma possível alta em relação à média.
+OI OHLC Analysis: O preço médio de fechamento do Bitcoin no período analisado é de 84747.97. O preço de fechamento mais alto foi de 90522.54. O fechamento mais recente está acima da média, indicando uma possível alta em relação à média.
+OI OHLC History Analysis: O preço médio de fechamento do Bitcoin no período analisado é de 30926863817.74. O preço de fechamento mais alto foi de 35029328569.00. O fechamento mais recente está acima da média, indicando uma possível alta em relação à média.
+Options Volume Analysis: O volume total de negociação de opções de Bitcoin foi de 21546.70. O volume médio por instrumento foi de 25.96. O maior volume registrado foi de 1816.90 para o instrumento BTC-18SEP24-53000-P.
+CVD Analysis: A média do CVD nos últimos 14 dias foi de 36.99. O maior CVD registrado foi de 520.80, enquanto o menor CVD foi de 0.01. O CVD mais recente é de 0.01.
+Volume Change Analysis: A média da mudança no volume nos últimos 14 dias foi de 1.04e+08. A maior mudança no volume foi de 2.03e+10, enquanto a menor mudança foi de -3.32e+10. A mudança de volume mais recente é de 4.82e+09.
+Skew Analysis: A média do Skew das opções de Bitcoin foi de 8.87%. O maior Skew registrado foi de 120.00%, enquanto o menor Skew foi de 0.30%. O Skew mais recente é de 1.27%.
+IV Analysis: A volatilidade implícita média para as opções de Bitcoin é de 74.20%. A maior volatilidade implícita registrada foi de 169.17% para o instrumento BTC-27SEP24-10000-C. A menor volatilidade implícita registrada foi de 35.86% para o instrumento BTC-18SEP24-60500-C.
+On-Chain Volume Analysis: O volume médio de transações on-chain para o Bitcoin no período analisado é de 5817.11. O volume máximo registrado foi de 185622.54. O volume mais recente está abaixo da média, indicando uma possível queda no número de transações em comparação com a média do período.
+Blockchain Data Analysis: Média de Endereços Ativos: 706478.10
+Média de Volume de Transações: 651748.53
+Média de Hash Rate: 650548360.27
+Média de Movimentação de Whales: 15793.47
+Exchange Flow Analysis: Falha ao recuperar os dados de fluxo de exchanges
+CPI Data: Valor mais recente do CPI (Fed): 314.121, Valor anterior do CPI (Fed): 313.534
+PCE Data: Valor mais recente do PCE (Fed): 19580.5, Valor anterior do PCE (Fed): 19476.7
+PIB Data: 2024-01-01    22758.752
+2024-04-01    22924.863
+dtype: float64
+S&amp;P 500 and Nasdaq Indices Analysis: None
+Top 8 Bitcoin News:                 source  ...                                          sentiment
+0                Wired  ...  **Sentiment:** Negative\n**Confidence Score:**...
+1  Yahoo Entertainment  ...         Sentiment: Positive\nConfidence Score: 0.8
+2     Business Insider  ...         Sentiment: Positive\nConfidence Score: 0.8
+3            The Verge  ...  The sentiment of the text is: NEUTRAL\n\nThe c...
+4          Gizmodo.com  ...  The sentiment of this text is: NEUTRAL\n\nConf...
+[5 rows x 6 columns]
+Top 8 Global Economy News:              source  ...                                          sentiment
+0             Wired  ...  **Sentiment:** Negative\n**Confidence Score:**...
+1         The Verge  ...  The sentiment of the text is: NEUTRAL\nConfide...
+2       Gizmodo.com  ...         Sentiment: Negative\nConfidence Score: 0.8
+3  Business Insider  ...  The sentiment of the given text is: **Positive...
+4       VentureBeat  ...  Sentiment: Positive\nConfidence Score: 0.8\n\n...
+[5 rows x 6 columns]
+Bitcoin-Gold Correlation: Correlação entre BTC-USD e Ouro nos últimos 30 dias: 0.12091740161965223</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
